--- a/Stein Gradients/Experiments/Results.xlsx
+++ b/Stein Gradients/Experiments/Results.xlsx
@@ -2217,52 +2217,52 @@
         <v>5</v>
       </c>
       <c r="M20">
-        <v>0.285</v>
+        <v>0.03</v>
       </c>
       <c r="N20">
-        <v>0.295</v>
+        <v>0.114</v>
       </c>
       <c r="O20">
-        <v>0.209</v>
+        <v>0.078</v>
       </c>
       <c r="P20">
-        <v>0.189</v>
+        <v>0.067</v>
       </c>
       <c r="Q20">
-        <v>0.919</v>
+        <v>0.99</v>
       </c>
       <c r="R20">
-        <v>0.913</v>
+        <v>0.972</v>
       </c>
       <c r="S20">
-        <v>0.951</v>
+        <v>0.981</v>
       </c>
       <c r="T20">
-        <v>0.949</v>
+        <v>0.981</v>
       </c>
       <c r="U20">
-        <v>0.255</v>
+        <v>0.026</v>
       </c>
       <c r="V20">
-        <v>0.257</v>
+        <v>0.091</v>
       </c>
       <c r="W20">
-        <v>0.209</v>
+        <v>0.078</v>
       </c>
       <c r="X20">
-        <v>0.189</v>
+        <v>0.063</v>
       </c>
       <c r="Y20">
-        <v>0.926</v>
+        <v>0.991</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.976</v>
       </c>
       <c r="AA20">
-        <v>0.951</v>
+        <v>0.981</v>
       </c>
       <c r="AB20">
-        <v>0.951</v>
+        <v>0.982</v>
       </c>
       <c r="AC20" t="s">
         <v>26</v>
@@ -2389,52 +2389,52 @@
         <v>5</v>
       </c>
       <c r="M22">
-        <v>0.462</v>
+        <v>0.034</v>
       </c>
       <c r="N22">
-        <v>0.458</v>
+        <v>0.108</v>
       </c>
       <c r="O22">
-        <v>10000000000</v>
+        <v>0.075</v>
       </c>
       <c r="P22">
-        <v>10000000000</v>
+        <v>0.064</v>
       </c>
       <c r="Q22">
-        <v>0.868</v>
+        <v>0.989</v>
       </c>
       <c r="R22">
-        <v>0.867</v>
+        <v>0.972</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="U22">
-        <v>0.398</v>
+        <v>0.024</v>
       </c>
       <c r="V22">
-        <v>0.375</v>
+        <v>0.091</v>
       </c>
       <c r="W22">
-        <v>10000000000</v>
+        <v>0.075</v>
       </c>
       <c r="X22">
-        <v>10000000000</v>
+        <v>0.06</v>
       </c>
       <c r="Y22">
-        <v>0.888</v>
+        <v>0.992</v>
       </c>
       <c r="Z22">
-        <v>0.892</v>
+        <v>0.975</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="AC22" t="s">
         <v>26</v>
@@ -2478,13 +2478,13 @@
         <v>0.002</v>
       </c>
       <c r="N23">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
       <c r="O23">
-        <v>10000000000</v>
+        <v>0.093</v>
       </c>
       <c r="P23">
-        <v>10000000000</v>
+        <v>0.093</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2493,10 +2493,10 @@
         <v>0.98</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="U23">
         <v>0.002</v>
@@ -2505,10 +2505,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="W23">
-        <v>10000000000</v>
+        <v>0.091</v>
       </c>
       <c r="X23">
-        <v>10000000000</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>0.981</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="AC23" t="s">
         <v>26</v>
@@ -3358,22 +3358,22 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>0.913</v>
+        <v>0.972</v>
       </c>
       <c r="H20">
-        <v>0.925</v>
+        <v>0.976</v>
       </c>
       <c r="I20">
-        <v>0.951</v>
+        <v>0.981</v>
       </c>
       <c r="J20">
-        <v>0.951</v>
+        <v>0.981</v>
       </c>
       <c r="K20">
-        <v>0.949</v>
+        <v>0.981</v>
       </c>
       <c r="L20">
-        <v>0.951</v>
+        <v>0.982</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
@@ -3440,22 +3440,22 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>0.867</v>
+        <v>0.972</v>
       </c>
       <c r="H22">
-        <v>0.892</v>
+        <v>0.975</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -3487,16 +3487,16 @@
         <v>0.981</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>

--- a/Stein Gradients/Experiments/Results.xlsx
+++ b/Stein Gradients/Experiments/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
   <si>
     <t>model_1</t>
   </si>
@@ -110,10 +110,25 @@
     <t>model_23</t>
   </si>
   <si>
+    <t>model_24</t>
+  </si>
+  <si>
+    <t>model_25</t>
+  </si>
+  <si>
+    <t>model_26</t>
+  </si>
+  <si>
     <t>ml_est</t>
   </si>
   <si>
     <t>ML estimation</t>
+  </si>
+  <si>
+    <t>ml_ensemble</t>
+  </si>
+  <si>
+    <t>Ensemble of 5 ML estimators</t>
   </si>
   <si>
     <t>experiment_name</t>
@@ -216,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC6C67"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -254,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -272,6 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,91 +627,91 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -2688,50 +2710,372 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="1">
         <v>200</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="K25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="M25" s="1">
+        <v>0.021</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.059</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.076</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.053</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.983</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.056</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.076</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.052</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.984</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>200</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.079</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.092</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>750</v>
+      </c>
+      <c r="J27" s="1">
+        <v>200</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.094</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.092</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9">
+        <v>200</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9">
         <v>0.003</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N28" s="9">
         <v>0.124</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9">
         <v>0.999</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R28" s="9">
         <v>0.979</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1">
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9">
         <v>0.002</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V28" s="9">
         <v>0.067</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9">
         <v>0.999</v>
       </c>
-      <c r="Z25" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>32</v>
+      <c r="Z28" s="9">
+        <v>0.981</v>
+      </c>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>100</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9">
+        <v>200</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9">
+        <v>1.463</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1.482</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
+        <v>1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0.985</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9">
+        <v>1.463</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1.482</v>
+      </c>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0.987</v>
+      </c>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +3085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2764,43 +3108,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3722,23 +4066,171 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1">
+        <v>0.983</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.984</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.982</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>750</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
         <v>0.979</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>32</v>
+      <c r="H28" s="9">
+        <v>0.981</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <v>0.985</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.987</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Stein Gradients/Experiments/Results.xlsx
+++ b/Stein Gradients/Experiments/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="77">
   <si>
     <t>model_1</t>
   </si>
@@ -29,6 +29,9 @@
     <t>FALSE</t>
   </si>
   <si>
+    <t>rbf</t>
+  </si>
+  <si>
     <t>model_2</t>
   </si>
   <si>
@@ -131,6 +134,24 @@
     <t>Ensemble of 5 ML estimators</t>
   </si>
   <si>
+    <t>model_30</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>model_31</t>
+  </si>
+  <si>
+    <t>model_28</t>
+  </si>
+  <si>
+    <t>model_27</t>
+  </si>
+  <si>
+    <t>model_29</t>
+  </si>
+  <si>
     <t>experiment_name</t>
   </si>
   <si>
@@ -159,6 +180,15 @@
   </si>
   <si>
     <t>n_epochs</t>
+  </si>
+  <si>
+    <t>h_type</t>
+  </si>
+  <si>
+    <t>kernel_type</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
   <si>
     <t>move_theta_0</t>
@@ -588,133 +618,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
     <col min="19" max="19" width="28.7109375" customWidth="1"/>
-    <col min="20" max="20" width="31.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="32.7109375" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" customWidth="1"/>
     <col min="27" max="27" width="33.7109375" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" customWidth="1"/>
+    <col min="30" max="30" width="34.7109375" customWidth="1"/>
+    <col min="31" max="31" width="37.7109375" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="U1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="V1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="W1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="X1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Y1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AB1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AC1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,65 +787,72 @@
       <c r="J2" s="1">
         <v>200</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1">
         <v>0.095</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>0.224</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1">
         <v>0.165</v>
       </c>
-      <c r="P2" s="1">
+      <c r="S2" s="1">
         <v>0.195</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="T2" s="1">
         <v>0.974</v>
       </c>
-      <c r="R2" s="1">
+      <c r="U2" s="1">
         <v>0.9419999999999999</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>0.952</v>
       </c>
-      <c r="T2" s="1">
+      <c r="W2" s="1">
         <v>0.946</v>
       </c>
-      <c r="U2" s="1">
+      <c r="X2" s="1">
         <v>0.095</v>
       </c>
-      <c r="V2" s="1">
+      <c r="Y2" s="1">
         <v>0.204</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Z2" s="1">
         <v>0.165</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AA2" s="1">
         <v>0.181</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AB2" s="1">
         <v>0.974</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AC2" s="1">
         <v>0.944</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AD2" s="1">
         <v>0.953</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AE2" s="1">
         <v>0.95</v>
       </c>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -824,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>700</v>
@@ -832,65 +881,72 @@
       <c r="J3" s="1">
         <v>200</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
         <v>0.1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>0.223</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
         <v>0.161</v>
       </c>
-      <c r="P3" s="1">
+      <c r="S3" s="1">
         <v>0.187</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="T3" s="1">
         <v>0.97</v>
       </c>
-      <c r="R3" s="1">
+      <c r="U3" s="1">
         <v>0.9429999999999999</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>0.952</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3" s="1">
         <v>0.949</v>
       </c>
-      <c r="U3" s="1">
+      <c r="X3" s="1">
         <v>0.096</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Y3" s="1">
         <v>0.205</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Z3" s="1">
         <v>0.161</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AA3" s="1">
         <v>0.175</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AB3" s="1">
         <v>0.972</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AC3" s="1">
         <v>0.946</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AD3" s="1">
         <v>0.953</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AE3" s="1">
         <v>0.951</v>
       </c>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -919,65 +975,72 @@
       <c r="J4" s="1">
         <v>200</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
         <v>0.07199999999999999</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>0.129</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1">
         <v>0.136</v>
       </c>
-      <c r="P4" s="1">
+      <c r="S4" s="1">
         <v>0.122</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="T4" s="1">
         <v>0.984</v>
       </c>
-      <c r="R4" s="1">
+      <c r="U4" s="1">
         <v>0.966</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>0.966</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4" s="1">
         <v>0.967</v>
       </c>
-      <c r="U4" s="1">
+      <c r="X4" s="1">
         <v>0.07199999999999999</v>
       </c>
-      <c r="V4" s="1">
+      <c r="Y4" s="1">
         <v>0.124</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Z4" s="1">
         <v>0.136</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AA4" s="1">
         <v>0.121</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AB4" s="1">
         <v>0.984</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
         <v>0.968</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AD4" s="1">
         <v>0.966</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AE4" s="1">
         <v>0.969</v>
       </c>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -998,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <v>700</v>
@@ -1006,65 +1069,72 @@
       <c r="J5" s="1">
         <v>200</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.099</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>0.208</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>0.146</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
         <v>0.171</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5" s="1">
         <v>0.972</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5" s="1">
         <v>0.946</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>0.956</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5" s="1">
         <v>0.952</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5" s="1">
         <v>0.08799999999999999</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <v>0.182</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Z5" s="1">
         <v>0.146</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AA5" s="1">
         <v>0.157</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>0.975</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>0.952</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>0.958</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>0.956</v>
       </c>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1073,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -1085,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1">
         <v>1000</v>
@@ -1093,65 +1163,72 @@
       <c r="J6" s="1">
         <v>200</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.028</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>0.115</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>0.075</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
         <v>0.06900000000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>0.991</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>0.971</v>
       </c>
-      <c r="S6" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="X6" s="1">
         <v>0.025</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>0.09</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>0.075</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>0.062</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>0.992</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>0.976</v>
       </c>
-      <c r="AA6" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AE6" s="1">
         <v>0.982</v>
       </c>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -1178,65 +1255,72 @@
       <c r="J7" s="1">
         <v>200</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.098</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>0.213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>0.157</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7" s="1">
         <v>0.182</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <v>0.972</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7" s="1">
         <v>0.945</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
         <v>0.956</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7" s="1">
         <v>0.951</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7" s="1">
         <v>0.094</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <v>0.199</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Z7" s="1">
         <v>0.157</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <v>0.171</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <v>0.973</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>0.948</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AD7" s="1">
         <v>0.956</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AE7" s="1">
         <v>0.952</v>
       </c>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -1255,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <v>700</v>
@@ -1263,65 +1347,72 @@
       <c r="J8" s="1">
         <v>200</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
         <v>0.104</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>0.201</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>0.15</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8" s="1">
         <v>0.171</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8" s="1">
         <v>0.97</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8" s="1">
         <v>0.945</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8" s="1">
         <v>0.955</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8" s="1">
         <v>0.953</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8" s="1">
         <v>0.094</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Y8" s="1">
         <v>0.192</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Z8" s="1">
         <v>0.15</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
         <v>0.165</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>0.973</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>0.949</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>0.957</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AE8" s="1">
         <v>0.954</v>
       </c>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -1348,65 +1439,72 @@
       <c r="J9" s="1">
         <v>200</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>0.129</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>0.139</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9" s="1">
         <v>0.126</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <v>0.985</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>0.964</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9" s="1">
         <v>0.963</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9" s="1">
         <v>0.965</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <v>0.068</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>0.128</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Z9" s="1">
         <v>0.139</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <v>0.125</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>0.985</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>0.965</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <v>0.964</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AE9" s="1">
         <v>0.966</v>
       </c>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1425,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
         <v>700</v>
@@ -1433,65 +1531,72 @@
       <c r="J10" s="1">
         <v>200</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.103</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>0.206</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10" s="1">
         <v>0.146</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10" s="1">
         <v>0.174</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10" s="1">
         <v>0.97</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10" s="1">
         <v>0.948</v>
       </c>
-      <c r="S10" s="1">
+      <c r="V10" s="1">
         <v>0.957</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10" s="1">
         <v>0.951</v>
       </c>
-      <c r="U10" s="1">
+      <c r="X10" s="1">
         <v>0.09</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Y10" s="1">
         <v>0.183</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Z10" s="1">
         <v>0.146</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AA10" s="1">
         <v>0.157</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AB10" s="1">
         <v>0.974</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AC10" s="1">
         <v>0.951</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AD10" s="1">
         <v>0.96</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AE10" s="1">
         <v>0.957</v>
       </c>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1500,7 +1605,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
@@ -1510,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <v>1000</v>
@@ -1518,65 +1623,72 @@
       <c r="J11" s="1">
         <v>146</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.036</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>0.109</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>0.083</v>
       </c>
-      <c r="P11" s="1">
+      <c r="S11" s="1">
         <v>0.065</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11" s="1">
         <v>0.989</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11" s="1">
         <v>0.973</v>
       </c>
-      <c r="S11" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="W11" s="1">
         <v>0.98</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11" s="1">
         <v>0.028</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <v>0.08500000000000001</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Z11" s="1">
         <v>0.083</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <v>0.059</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>0.991</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>0.978</v>
       </c>
-      <c r="AA11" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AB11" s="1">
+      <c r="AD11" s="1">
+        <v>0.981</v>
+      </c>
+      <c r="AE11" s="1">
         <v>0.982</v>
       </c>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1585,7 +1697,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>3</v>
@@ -1603,67 +1715,74 @@
       <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>0.033</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>0.099</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>0.077</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>0.062</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>0.989</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>0.974</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="3">
         <v>0.982</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="3">
         <v>0.982</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="3">
         <v>0.027</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="3">
         <v>0.096</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Z12" s="3">
         <v>0.077</v>
       </c>
-      <c r="X12" s="3">
+      <c r="AA12" s="3">
         <v>0.062</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AB12" s="3">
         <v>0.992</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AC12" s="3">
         <v>0.975</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AD12" s="3">
         <v>0.982</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AE12" s="3">
         <v>0.982</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AF12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
@@ -1672,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>3</v>
@@ -1682,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
@@ -1690,67 +1809,74 @@
       <c r="J13" s="5">
         <v>200</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="5">
         <v>0.023</v>
       </c>
-      <c r="N13" s="5">
+      <c r="Q13" s="5">
         <v>0.101</v>
       </c>
-      <c r="O13" s="5">
+      <c r="R13" s="5">
         <v>0.075</v>
       </c>
-      <c r="P13" s="5">
+      <c r="S13" s="5">
         <v>0.064</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="T13" s="5">
         <v>0.992</v>
       </c>
-      <c r="R13" s="5">
+      <c r="U13" s="5">
         <v>0.974</v>
       </c>
-      <c r="S13" s="5">
+      <c r="V13" s="5">
         <v>0.982</v>
       </c>
-      <c r="T13" s="5">
+      <c r="W13" s="5">
         <v>0.98</v>
       </c>
-      <c r="U13" s="5">
+      <c r="X13" s="5">
         <v>0.023</v>
       </c>
-      <c r="V13" s="5">
+      <c r="Y13" s="5">
         <v>0.08799999999999999</v>
       </c>
-      <c r="W13" s="5">
+      <c r="Z13" s="5">
         <v>0.075</v>
       </c>
-      <c r="X13" s="5">
+      <c r="AA13" s="5">
         <v>0.06</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AB13" s="5">
         <v>0.992</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AC13" s="5">
         <v>0.977</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AD13" s="5">
         <v>0.982</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AE13" s="5">
         <v>0.984</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AF13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1759,7 +1885,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>3</v>
@@ -1769,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
@@ -1777,67 +1903,74 @@
       <c r="J14" s="5">
         <v>200</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="5">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="5">
         <v>0.035</v>
       </c>
-      <c r="N14" s="5">
+      <c r="Q14" s="5">
         <v>0.101</v>
       </c>
-      <c r="O14" s="5">
+      <c r="R14" s="5">
         <v>0.101</v>
       </c>
-      <c r="P14" s="5">
+      <c r="S14" s="5">
         <v>0.101</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="T14" s="5">
         <v>0.989</v>
       </c>
-      <c r="R14" s="5">
+      <c r="U14" s="5">
         <v>0.973</v>
       </c>
-      <c r="S14" s="5">
+      <c r="V14" s="5">
         <v>0.973</v>
       </c>
-      <c r="T14" s="5">
+      <c r="W14" s="5">
         <v>0.973</v>
       </c>
-      <c r="U14" s="5">
+      <c r="X14" s="5">
         <v>0.035</v>
       </c>
-      <c r="V14" s="5">
+      <c r="Y14" s="5">
         <v>0.101</v>
       </c>
-      <c r="W14" s="5">
+      <c r="Z14" s="5">
         <v>0.101</v>
       </c>
-      <c r="X14" s="5">
+      <c r="AA14" s="5">
         <v>0.101</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AB14" s="5">
         <v>0.989</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AC14" s="5">
         <v>0.973</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AD14" s="5">
         <v>0.973</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AE14" s="5">
         <v>0.973</v>
       </c>
-      <c r="AC14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AF14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -1846,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>3</v>
@@ -1856,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="5">
         <v>500</v>
@@ -1864,67 +1997,74 @@
       <c r="J15" s="5">
         <v>200</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="5">
         <v>0.035</v>
       </c>
-      <c r="N15" s="5">
+      <c r="Q15" s="5">
         <v>0.124</v>
       </c>
-      <c r="O15" s="5">
+      <c r="R15" s="5">
         <v>0.073</v>
       </c>
-      <c r="P15" s="5">
+      <c r="S15" s="5">
         <v>0.063</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="T15" s="5">
         <v>0.989</v>
       </c>
-      <c r="R15" s="5">
+      <c r="U15" s="5">
         <v>0.97</v>
       </c>
-      <c r="S15" s="5">
+      <c r="V15" s="5">
         <v>0.982</v>
       </c>
-      <c r="T15" s="5">
-        <v>0.981</v>
-      </c>
-      <c r="U15" s="5">
+      <c r="W15" s="5">
+        <v>0.981</v>
+      </c>
+      <c r="X15" s="5">
         <v>0.022</v>
       </c>
-      <c r="V15" s="5">
+      <c r="Y15" s="5">
         <v>0.09</v>
       </c>
-      <c r="W15" s="5">
+      <c r="Z15" s="5">
         <v>0.073</v>
       </c>
-      <c r="X15" s="5">
+      <c r="AA15" s="5">
         <v>0.06</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="AB15" s="5">
         <v>0.993</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AC15" s="5">
         <v>0.978</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AD15" s="5">
         <v>0.982</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AE15" s="5">
         <v>0.983</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AF15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1</v>
@@ -1933,7 +2073,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>3</v>
@@ -1943,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="5">
         <v>500</v>
@@ -1951,67 +2091,74 @@
       <c r="J16" s="5">
         <v>200</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="5">
         <v>0.013</v>
       </c>
-      <c r="N16" s="5">
+      <c r="Q16" s="5">
         <v>0.08599999999999999</v>
       </c>
-      <c r="O16" s="5">
+      <c r="R16" s="5">
         <v>0.08599999999999999</v>
       </c>
-      <c r="P16" s="5">
+      <c r="S16" s="5">
         <v>0.08599999999999999</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="T16" s="5">
         <v>0.996</v>
       </c>
-      <c r="R16" s="5">
+      <c r="U16" s="5">
         <v>0.977</v>
       </c>
-      <c r="S16" s="5">
+      <c r="V16" s="5">
         <v>0.977</v>
       </c>
-      <c r="T16" s="5">
+      <c r="W16" s="5">
         <v>0.977</v>
       </c>
-      <c r="U16" s="5">
+      <c r="X16" s="5">
         <v>0.013</v>
       </c>
-      <c r="V16" s="5">
+      <c r="Y16" s="5">
         <v>0.078</v>
       </c>
-      <c r="W16" s="5">
+      <c r="Z16" s="5">
         <v>0.08500000000000001</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AA16" s="5">
         <v>0.08</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AB16" s="5">
         <v>0.997</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AC16" s="5">
         <v>0.979</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AD16" s="5">
         <v>0.977</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AE16" s="5">
         <v>0.978</v>
       </c>
-      <c r="AC16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AF16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -2020,7 +2167,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>3</v>
@@ -2030,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2038,65 +2185,72 @@
       <c r="J17" s="1">
         <v>200</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
         <v>0.029</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>0.106</v>
       </c>
-      <c r="O17" s="1">
+      <c r="R17" s="1">
         <v>0.075</v>
       </c>
-      <c r="P17" s="1">
+      <c r="S17" s="1">
         <v>0.061</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="T17" s="1">
         <v>0.991</v>
       </c>
-      <c r="R17" s="1">
+      <c r="U17" s="1">
         <v>0.972</v>
       </c>
-      <c r="S17" s="1">
+      <c r="V17" s="1">
         <v>0.982</v>
       </c>
-      <c r="T17" s="1">
+      <c r="W17" s="1">
         <v>0.98</v>
       </c>
-      <c r="U17" s="1">
+      <c r="X17" s="1">
         <v>0.022</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Y17" s="1">
         <v>0.092</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Z17" s="1">
         <v>0.075</v>
       </c>
-      <c r="X17" s="1">
+      <c r="AA17" s="1">
         <v>0.06</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AB17" s="1">
         <v>0.993</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AC17" s="1">
         <v>0.977</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AD17" s="1">
         <v>0.982</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AE17" s="1">
         <v>0.983</v>
       </c>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -2105,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
@@ -2115,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -2123,65 +2277,72 @@
       <c r="J18" s="1">
         <v>200</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
         <v>8.853999999999999</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>8.882</v>
       </c>
-      <c r="O18" s="1">
+      <c r="R18" s="1">
         <v>8.851000000000001</v>
       </c>
-      <c r="P18" s="1">
+      <c r="S18" s="1">
         <v>8.882</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="T18" s="1">
         <v>0.08500000000000001</v>
       </c>
-      <c r="R18" s="1">
+      <c r="U18" s="1">
         <v>0.082</v>
       </c>
-      <c r="S18" s="1">
+      <c r="V18" s="1">
         <v>0.082</v>
       </c>
-      <c r="T18" s="1">
+      <c r="W18" s="1">
         <v>0.082</v>
       </c>
-      <c r="U18" s="1">
+      <c r="X18" s="1">
         <v>8.853999999999999</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Y18" s="1">
         <v>8.882</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Z18" s="1">
         <v>8.811</v>
       </c>
-      <c r="X18" s="1">
+      <c r="AA18" s="1">
         <v>8.709</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AB18" s="1">
         <v>0.08500000000000001</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AC18" s="1">
         <v>0.083</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AD18" s="1">
         <v>0.082</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AE18" s="1">
         <v>0.083</v>
       </c>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -2190,7 +2351,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
@@ -2200,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
         <v>500</v>
@@ -2208,65 +2369,72 @@
       <c r="J19" s="1">
         <v>200</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1">
         <v>0.027</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>0.107</v>
       </c>
-      <c r="O19" s="1">
+      <c r="R19" s="1">
         <v>0.077</v>
       </c>
-      <c r="P19" s="1">
+      <c r="S19" s="1">
         <v>0.063</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="T19" s="1">
         <v>0.991</v>
       </c>
-      <c r="R19" s="1">
+      <c r="U19" s="1">
         <v>0.973</v>
       </c>
-      <c r="S19" s="1">
+      <c r="V19" s="1">
         <v>0.982</v>
       </c>
-      <c r="T19" s="1">
+      <c r="W19" s="1">
         <v>0.982</v>
       </c>
-      <c r="U19" s="1">
+      <c r="X19" s="1">
         <v>0.026</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Y19" s="1">
         <v>0.09</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Z19" s="1">
         <v>0.077</v>
       </c>
-      <c r="X19" s="1">
+      <c r="AA19" s="1">
         <v>0.06</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AB19" s="1">
         <v>0.991</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <v>0.975</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <v>0.982</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AE19" s="1">
         <v>0.982</v>
       </c>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2275,7 +2443,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
@@ -2285,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1">
         <v>500</v>
@@ -2293,65 +2461,72 @@
       <c r="J20" s="1">
         <v>200</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
         <v>1.164</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>1.232</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20" s="1">
         <v>1.199</v>
       </c>
-      <c r="P20" s="1">
+      <c r="S20" s="1">
         <v>1.232</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="T20" s="1">
         <v>0.679</v>
       </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
         <v>0.666</v>
       </c>
-      <c r="S20" s="1">
+      <c r="V20" s="1">
         <v>0.666</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <v>0.665</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <v>1.164</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Y20" s="1">
         <v>1.232</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Z20" s="1">
         <v>1.199</v>
       </c>
-      <c r="X20" s="1">
+      <c r="AA20" s="1">
         <v>1.232</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AB20" s="1">
         <v>0.679</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <v>0.667</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <v>0.668</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <v>0.667</v>
       </c>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>1</v>
@@ -2360,7 +2535,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>3</v>
@@ -2370,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2378,67 +2553,74 @@
       <c r="J21" s="7">
         <v>200</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="7">
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="7">
         <v>0.03</v>
       </c>
-      <c r="N21" s="7">
+      <c r="Q21" s="7">
         <v>0.114</v>
       </c>
-      <c r="O21" s="7">
+      <c r="R21" s="7">
         <v>0.078</v>
       </c>
-      <c r="P21" s="7">
+      <c r="S21" s="7">
         <v>0.067</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="T21" s="7">
         <v>0.99</v>
       </c>
-      <c r="R21" s="7">
+      <c r="U21" s="7">
         <v>0.972</v>
       </c>
-      <c r="S21" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="U21" s="7">
+      <c r="V21" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="X21" s="7">
         <v>0.026</v>
       </c>
-      <c r="V21" s="7">
+      <c r="Y21" s="7">
         <v>0.091</v>
       </c>
-      <c r="W21" s="7">
+      <c r="Z21" s="7">
         <v>0.078</v>
       </c>
-      <c r="X21" s="7">
+      <c r="AA21" s="7">
         <v>0.063</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="AB21" s="7">
         <v>0.991</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AC21" s="7">
         <v>0.976</v>
       </c>
-      <c r="AA21" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AB21" s="7">
+      <c r="AD21" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE21" s="7">
         <v>0.982</v>
       </c>
-      <c r="AC21" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AF21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>1</v>
@@ -2447,7 +2629,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>3</v>
@@ -2457,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -2465,67 +2647,74 @@
       <c r="J22" s="7">
         <v>200</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="7">
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="7">
         <v>0.005</v>
       </c>
-      <c r="N22" s="7">
+      <c r="Q22" s="7">
         <v>0.098</v>
       </c>
-      <c r="O22" s="7">
+      <c r="R22" s="7">
         <v>0.098</v>
       </c>
-      <c r="P22" s="7">
+      <c r="S22" s="7">
         <v>0.098</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="T22" s="7">
         <v>0.999</v>
       </c>
-      <c r="R22" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.981</v>
-      </c>
       <c r="U22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="X22" s="7">
         <v>0.005</v>
       </c>
-      <c r="V22" s="7">
+      <c r="Y22" s="7">
         <v>0.098</v>
       </c>
-      <c r="W22" s="7">
+      <c r="Z22" s="7">
         <v>0.098</v>
       </c>
-      <c r="X22" s="7">
+      <c r="AA22" s="7">
         <v>0.098</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="AB22" s="7">
         <v>0.999</v>
       </c>
-      <c r="Z22" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AC22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AC22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>1</v>
@@ -2534,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>3</v>
@@ -2544,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
         <v>500</v>
@@ -2552,67 +2741,74 @@
       <c r="J23" s="7">
         <v>200</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="7">
         <v>0.034</v>
       </c>
-      <c r="N23" s="7">
+      <c r="Q23" s="7">
         <v>0.108</v>
       </c>
-      <c r="O23" s="7">
+      <c r="R23" s="7">
         <v>0.075</v>
       </c>
-      <c r="P23" s="7">
+      <c r="S23" s="7">
         <v>0.064</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="T23" s="7">
         <v>0.989</v>
       </c>
-      <c r="R23" s="7">
+      <c r="U23" s="7">
         <v>0.972</v>
       </c>
-      <c r="S23" s="7">
+      <c r="V23" s="7">
         <v>0.982</v>
       </c>
-      <c r="T23" s="7">
+      <c r="W23" s="7">
         <v>0.98</v>
       </c>
-      <c r="U23" s="7">
+      <c r="X23" s="7">
         <v>0.024</v>
       </c>
-      <c r="V23" s="7">
+      <c r="Y23" s="7">
         <v>0.091</v>
       </c>
-      <c r="W23" s="7">
+      <c r="Z23" s="7">
         <v>0.075</v>
       </c>
-      <c r="X23" s="7">
+      <c r="AA23" s="7">
         <v>0.06</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="AB23" s="7">
         <v>0.992</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="AC23" s="7">
         <v>0.975</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AD23" s="7">
         <v>0.982</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AE23" s="7">
         <v>0.982</v>
       </c>
-      <c r="AC23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AF23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>1</v>
@@ -2621,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>3</v>
@@ -2631,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
         <v>500</v>
@@ -2639,67 +2835,74 @@
       <c r="J24" s="7">
         <v>200</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="7">
         <v>0.002</v>
       </c>
-      <c r="N24" s="7">
+      <c r="Q24" s="7">
         <v>0.093</v>
       </c>
-      <c r="O24" s="7">
+      <c r="R24" s="7">
         <v>0.093</v>
       </c>
-      <c r="P24" s="7">
+      <c r="S24" s="7">
         <v>0.093</v>
       </c>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
-      <c r="R24" s="7">
+      <c r="T24" s="7">
+        <v>1</v>
+      </c>
+      <c r="U24" s="7">
         <v>0.98</v>
       </c>
-      <c r="S24" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="T24" s="7">
+      <c r="V24" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W24" s="7">
         <v>0.98</v>
       </c>
-      <c r="U24" s="7">
+      <c r="X24" s="7">
         <v>0.002</v>
       </c>
-      <c r="V24" s="7">
+      <c r="Y24" s="7">
         <v>0.08500000000000001</v>
       </c>
-      <c r="W24" s="7">
+      <c r="Z24" s="7">
         <v>0.091</v>
       </c>
-      <c r="X24" s="7">
+      <c r="AA24" s="7">
         <v>0.08799999999999999</v>
       </c>
-      <c r="Y24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0.981</v>
-      </c>
       <c r="AB24" s="7">
-        <v>0.981</v>
-      </c>
-      <c r="AC24" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -2708,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>3</v>
@@ -2726,239 +2929,260 @@
       <c r="J25" s="1">
         <v>200</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1">
         <v>0.021</v>
       </c>
-      <c r="N25" s="1">
+      <c r="Q25" s="1">
         <v>0.059</v>
       </c>
-      <c r="O25" s="1">
+      <c r="R25" s="1">
         <v>0.076</v>
       </c>
-      <c r="P25" s="1">
+      <c r="S25" s="1">
         <v>0.053</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="T25" s="1">
         <v>0.997</v>
       </c>
-      <c r="R25" s="1">
+      <c r="U25" s="1">
         <v>0.983</v>
       </c>
-      <c r="S25" s="1">
+      <c r="V25" s="1">
         <v>0.982</v>
       </c>
-      <c r="T25" s="1">
+      <c r="W25" s="1">
         <v>0.985</v>
       </c>
-      <c r="U25" s="1">
+      <c r="X25" s="1">
         <v>0.02</v>
       </c>
-      <c r="V25" s="1">
+      <c r="Y25" s="1">
         <v>0.056</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Z25" s="1">
         <v>0.076</v>
       </c>
-      <c r="X25" s="1">
+      <c r="AA25" s="1">
         <v>0.052</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>0.998</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>0.984</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>0.982</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AE25" s="1">
         <v>0.985</v>
       </c>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>100</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
         <v>5</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="7">
+        <v>200</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.094</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.094</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.094</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0.079</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0.092</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="H27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>750</v>
+      </c>
+      <c r="J27" s="7">
         <v>200</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="7">
         <v>0.001</v>
       </c>
-      <c r="N26" s="1">
+      <c r="Q27" s="7">
         <v>0.094</v>
       </c>
-      <c r="O26" s="1">
+      <c r="R27" s="7">
         <v>0.094</v>
       </c>
-      <c r="P26" s="1">
+      <c r="S27" s="7">
         <v>0.094</v>
       </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X27" s="7">
         <v>0.001</v>
       </c>
-      <c r="V26" s="1">
-        <v>0.079</v>
-      </c>
-      <c r="W26" s="1">
+      <c r="Y27" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="Z27" s="7">
         <v>0.092</v>
       </c>
-      <c r="X26" s="1">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0.982</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <v>750</v>
-      </c>
-      <c r="J27" s="1">
-        <v>200</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.094</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.094</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.094</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0.092</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="AA27" s="7">
         <v>0.08599999999999999</v>
       </c>
-      <c r="Y27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>1</v>
@@ -2967,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2981,45 +3205,48 @@
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="9">
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9">
         <v>0.003</v>
       </c>
-      <c r="N28" s="9">
+      <c r="Q28" s="9">
         <v>0.124</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9">
         <v>0.999</v>
       </c>
-      <c r="R28" s="9">
+      <c r="U28" s="9">
         <v>0.979</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9">
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9">
         <v>0.002</v>
       </c>
-      <c r="V28" s="9">
+      <c r="Y28" s="9">
         <v>0.067</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9">
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9">
         <v>0.999</v>
       </c>
-      <c r="Z28" s="9">
-        <v>0.981</v>
-      </c>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AC28" s="9">
+        <v>0.981</v>
+      </c>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1</v>
@@ -3028,7 +3255,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3042,40 +3269,523 @@
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9">
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9">
         <v>1.463</v>
       </c>
-      <c r="N29" s="9">
+      <c r="Q29" s="9">
         <v>1.482</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9">
-        <v>1</v>
-      </c>
-      <c r="R29" s="9">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="9">
         <v>0.985</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9">
         <v>1.463</v>
       </c>
-      <c r="V29" s="9">
+      <c r="Y29" s="9">
         <v>1.482</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="9">
         <v>0.987</v>
       </c>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9" t="s">
-        <v>37</v>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>200</v>
+      </c>
+      <c r="K30" s="7">
+        <v>6</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.028</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.059</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.066</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0.974</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0.022</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0.091</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0.059</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0.061</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0.993</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0.976</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7">
+        <v>6</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>100</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>500</v>
+      </c>
+      <c r="J32" s="7">
+        <v>200</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0.034</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.101</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.059</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0.066</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0.989</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0.973</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0.025</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0.091</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0.059</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0.061</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0.992</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0.975</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="7">
+        <v>500</v>
+      </c>
+      <c r="J33" s="7">
+        <v>200</v>
+      </c>
+      <c r="K33" s="7">
+        <v>6</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0.002</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0.097</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0.097</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0.097</v>
+      </c>
+      <c r="T33" s="7">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0.002</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0.096</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0.091</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>100</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="7">
+        <v>200</v>
+      </c>
+      <c r="K34" s="7">
+        <v>6</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0.096</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0.096</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0.097</v>
+      </c>
+      <c r="T34" s="7">
+        <v>1</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="V34" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X34" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0.096</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3085,66 +3795,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3188,19 +3898,19 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>700</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -3227,7 +3937,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -3266,19 +3976,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>700</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -3305,19 +4015,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>1000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
@@ -3344,7 +4054,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3383,19 +4093,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>700</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -3422,7 +4132,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -3461,19 +4171,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>700</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -3500,19 +4210,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>1000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -3539,7 +4249,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -3575,27 +4285,27 @@
         <v>0.982</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5">
         <v>0.974</v>
@@ -3616,18 +4326,18 @@
         <v>0.984</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -3636,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5">
         <v>0.973</v>
@@ -3657,27 +4367,27 @@
         <v>0.973</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5">
         <v>500</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5">
         <v>0.97</v>
@@ -3698,18 +4408,18 @@
         <v>0.983</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5">
         <v>500</v>
@@ -3718,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5">
         <v>0.977</v>
@@ -3739,24 +4449,24 @@
         <v>0.978</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -3783,13 +4493,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3822,19 +4532,19 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>500</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>3</v>
@@ -3861,13 +4571,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>500</v>
@@ -3900,22 +4610,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7">
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="7">
         <v>0.972</v>
@@ -3936,18 +4646,18 @@
         <v>0.982</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7">
         <v>5</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -3956,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7">
         <v>0.981</v>
@@ -3977,27 +4687,27 @@
         <v>0.981</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7">
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
         <v>500</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="7">
         <v>0.972</v>
@@ -4018,18 +4728,18 @@
         <v>0.982</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
         <v>500</v>
@@ -4038,7 +4748,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="7">
         <v>0.98</v>
@@ -4059,12 +4769,12 @@
         <v>0.981</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -4102,90 +4812,90 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.982</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7">
         <v>750</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7">
         <v>0.98</v>
       </c>
-      <c r="H27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="I27" s="7">
         <v>0.98</v>
       </c>
-      <c r="J27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="J27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K27" s="7">
         <v>0.98</v>
       </c>
-      <c r="L27" s="1">
-        <v>0.981</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>27</v>
+      <c r="L27" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -4205,12 +4915,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="9">
         <v>5</v>
@@ -4230,7 +4940,212 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.974</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.976</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>500</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.973</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.975</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <v>500</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Stein Gradients/Experiments/Results.xlsx
+++ b/Stein Gradients/Experiments/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="79">
   <si>
     <t>model_1</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>model_29</t>
+  </si>
+  <si>
+    <t>model_33</t>
+  </si>
+  <si>
+    <t>model_34</t>
   </si>
   <si>
     <t>experiment_name</t>
@@ -618,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,100 +666,100 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -3788,6 +3794,194 @@
         <v>28</v>
       </c>
     </row>
+    <row r="35" spans="1:32">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>20</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>200</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.033</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.076</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0.064</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0.989</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0.972</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0.024</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0.096</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0.076</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0.061</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0.992</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.976</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>100</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <v>20</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>200</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="X36" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0.098</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3795,7 +3989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3818,43 +4012,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5148,6 +5342,88 @@
         <v>28</v>
       </c>
     </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.972</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.976</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.982</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="7">
+        <v>20</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.981</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
